--- a/TEMOA_Europe_Results/1_Results_bau/_1_Transport_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_1_Transport_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>tech</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
-  </si>
-  <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
   </si>
   <si>
     <t>PRI_COA_HCO</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,19 +574,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.582</v>
+        <v>0.5819999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G2">
-        <v>0.1387570603255635</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -615,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -624,10 +621,10 @@
         <v>0.439</v>
       </c>
       <c r="F3">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="H3">
         <v>0.06937853016278178</v>
@@ -653,34 +650,34 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>205539.0254968777</v>
+        <v>207130.0072474385</v>
       </c>
       <c r="E4">
         <v>219100.3696534287</v>
       </c>
       <c r="F4">
-        <v>210419.4264362692</v>
+        <v>210419.4264362689</v>
       </c>
       <c r="G4">
         <v>210507.3487231961</v>
       </c>
       <c r="H4">
-        <v>202046.5767545931</v>
+        <v>200044.0769094879</v>
       </c>
       <c r="I4">
-        <v>192609.6247879048</v>
+        <v>186974.0519282415</v>
       </c>
       <c r="J4">
-        <v>167993.2777382863</v>
+        <v>165990.7778931133</v>
       </c>
       <c r="K4">
-        <v>138982.2667081321</v>
+        <v>144215.4884857246</v>
       </c>
       <c r="L4">
-        <v>73668.28400017734</v>
+        <v>70920.35919515963</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -691,10 +688,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>5592.273121501929</v>
+        <v>3815.332465031311</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -703,22 +700,22 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>9597.399999999998</v>
+        <v>9597.399999999994</v>
       </c>
       <c r="H5">
         <v>12181.8</v>
       </c>
       <c r="I5">
-        <v>10368.68208763709</v>
+        <v>14426.4</v>
       </c>
       <c r="J5">
         <v>16671</v>
       </c>
       <c r="K5">
-        <v>18915.65</v>
+        <v>13015.40788915904</v>
       </c>
       <c r="L5">
-        <v>18074.47502482694</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -729,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>79217.14186748744</v>
+        <v>79217.14186748749</v>
       </c>
       <c r="E6">
         <v>70720.61381623764</v>
@@ -741,22 +738,22 @@
         <v>64227.97532518752</v>
       </c>
       <c r="G6">
-        <v>72919.24682763667</v>
+        <v>72919.24682763664</v>
       </c>
       <c r="H6">
-        <v>53897.48757856616</v>
+        <v>53669.12212993346</v>
       </c>
       <c r="I6">
-        <v>50145.52440597226</v>
+        <v>49908.77149977042</v>
       </c>
       <c r="J6">
-        <v>45093.06487156617</v>
+        <v>44856.31196536445</v>
       </c>
       <c r="K6">
-        <v>66891.53660741381</v>
+        <v>66891.53660741374</v>
       </c>
       <c r="L6">
-        <v>77603.84341784021</v>
+        <v>77603.84341784018</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -767,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>6544.024762966354</v>
+        <v>6544.024762966358</v>
       </c>
       <c r="E7">
         <v>5842.137663080503</v>
@@ -779,22 +776,22 @@
         <v>5305.789265993752</v>
       </c>
       <c r="G7">
-        <v>6023.763868369987</v>
+        <v>6023.763868369982</v>
       </c>
       <c r="H7">
-        <v>4702.880661275577</v>
+        <v>4682.954399397179</v>
       </c>
       <c r="I7">
-        <v>4142.456363971623</v>
+        <v>4122.898515198427</v>
       </c>
       <c r="J7">
-        <v>3725.079271998945</v>
+        <v>3705.521423225759</v>
       </c>
       <c r="K7">
-        <v>5525.822589308096</v>
+        <v>5525.822589308092</v>
       </c>
       <c r="L7">
-        <v>6410.752282343323</v>
+        <v>6410.752282343319</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -805,10 +802,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>344.4223559455976</v>
+        <v>344.4223559455977</v>
       </c>
       <c r="E8">
         <v>307.4809296358159</v>
@@ -817,22 +814,22 @@
         <v>279.25206663125</v>
       </c>
       <c r="G8">
-        <v>317.0402035984204</v>
+        <v>317.0402035984201</v>
       </c>
       <c r="H8">
-        <v>3279.640461152705</v>
+        <v>3265.744515369086</v>
       </c>
       <c r="I8">
-        <v>218.0240191564011</v>
+        <v>216.994658694654</v>
       </c>
       <c r="J8">
-        <v>196.0568037894181</v>
+        <v>195.0274433276715</v>
       </c>
       <c r="K8">
-        <v>290.8327678583208</v>
+        <v>290.8327678583206</v>
       </c>
       <c r="L8">
-        <v>337.4080148601749</v>
+        <v>337.4080148601748</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -843,34 +840,34 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>66.91234564031244</v>
+        <v>66.91234564031245</v>
       </c>
       <c r="E9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="F9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="G9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="H9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="I9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="J9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="K9">
-        <v>99.36590973615321</v>
+        <v>99.36590973615404</v>
       </c>
       <c r="L9">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -881,25 +878,25 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>7440.438491302202</v>
       </c>
       <c r="E10">
-        <v>8087.043507027061</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F10">
         <v>4769.284525849926</v>
       </c>
       <c r="G10">
-        <v>8428.673142576763</v>
+        <v>8428.673142576765</v>
       </c>
       <c r="H10">
         <v>8880.115393079437</v>
       </c>
       <c r="I10">
-        <v>9277.091423365639</v>
+        <v>9277.09142336564</v>
       </c>
       <c r="J10">
         <v>9679.933362930611</v>
@@ -919,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>229.1565474368414</v>
+        <v>229.1565474368436</v>
       </c>
       <c r="E11">
         <v>284.0669110913908</v>
@@ -931,7 +928,7 @@
         <v>252.4097255083492</v>
       </c>
       <c r="G11">
-        <v>205.7653683019907</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H11">
         <v>284.0669110913908</v>
@@ -957,13 +954,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>10.38164779160708</v>
+        <v>10.23630472252458</v>
       </c>
       <c r="E12">
-        <v>4.541970908828096</v>
+        <v>5.190823895803538</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -978,13 +975,13 @@
         <v>10.5141129032258</v>
       </c>
       <c r="J12">
-        <v>10.15143985323136</v>
+        <v>7.009408602150536</v>
       </c>
       <c r="K12">
-        <v>3.504704301075268</v>
+        <v>3.504704301075269</v>
       </c>
       <c r="L12">
-        <v>18.00541834678549</v>
+        <v>18.0054183467742</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -995,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1453430690824991</v>
       </c>
       <c r="E13">
-        <v>0.6488529869754422</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1016,13 +1013,13 @@
         <v>15.77116935483871</v>
       </c>
       <c r="J13">
-        <v>16.13384240483315</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K13">
-        <v>22.78057795698924</v>
+        <v>22.78057795698925</v>
       </c>
       <c r="L13">
-        <v>8.27986391129062</v>
+        <v>8.27986391129015</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1033,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1071,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1098,7 +1095,7 @@
         <v>4.040435035409767</v>
       </c>
       <c r="L15">
-        <v>4.040435035409767</v>
+        <v>4.040435035409766</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1109,34 +1106,34 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>3516.000795070563</v>
+        <v>1925.01904450974</v>
       </c>
       <c r="E16">
-        <v>3878.663459399532</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F16">
         <v>2109.600477042338</v>
       </c>
       <c r="G16">
-        <v>3990.836262668869</v>
+        <v>3990.836262666394</v>
       </c>
       <c r="H16">
-        <v>4705.797412001724</v>
+        <v>4705.7974120022</v>
       </c>
       <c r="I16">
-        <v>1617.412034997806</v>
+        <v>5250.485056708872</v>
       </c>
       <c r="J16">
-        <v>6154.152356683896</v>
+        <v>6154.152356678685</v>
       </c>
       <c r="K16">
-        <v>6151.4530059955</v>
+        <v>868.6780928006764</v>
       </c>
       <c r="L16">
-        <v>162.4118407985819</v>
+        <v>2925.301644151201</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1147,10 +1144,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1776.940656470529</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1165,16 +1162,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4057.717912362914</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5900.242110840958</v>
       </c>
       <c r="L17">
-        <v>3085.824975173055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1185,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>1811.470425971182</v>
@@ -1223,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1247,48 +1244,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>37.04345078595429</v>
       </c>
       <c r="L19">
-        <v>180.8910115022148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>37.04345078595429</v>
-      </c>
-      <c r="L20">
-        <v>37.04345078595429</v>
+        <v>217.934462288169</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1347,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>0.582</v>
+        <v>0.5819999999999999</v>
       </c>
       <c r="E2">
         <v>0.439</v>
@@ -1385,34 +1344,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>9053.480611543569</v>
+        <v>9053.480611543562</v>
       </c>
       <c r="E3">
         <v>9421.315895097434</v>
       </c>
       <c r="F3">
-        <v>9048.035336759578</v>
+        <v>9048.035336759562</v>
       </c>
       <c r="G3">
         <v>9421.315895097434</v>
       </c>
       <c r="H3">
-        <v>9157.002100447507</v>
+        <v>9070.894607107984</v>
       </c>
       <c r="I3">
-        <v>8681.408126253937</v>
+        <v>8595.300632914383</v>
       </c>
       <c r="J3">
-        <v>7865.544442746313</v>
+        <v>7779.436949403869</v>
       </c>
       <c r="K3">
-        <v>6704.489993449683</v>
+        <v>6702.359208618782</v>
       </c>
       <c r="L3">
-        <v>3863.603500463462</v>
+        <v>3864.246995391864</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1420,37 +1379,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>225.296</v>
       </c>
       <c r="E4">
-        <v>231.6339999999999</v>
+        <v>231.634</v>
       </c>
       <c r="F4">
         <v>225.5130000000001</v>
       </c>
       <c r="G4">
-        <v>227.3270513978465</v>
+        <v>227.3270513978501</v>
       </c>
       <c r="H4">
-        <v>246.7593669062944</v>
+        <v>275.4420000000003</v>
       </c>
       <c r="I4">
-        <v>335.4292846434053</v>
+        <v>364.1119176913593</v>
       </c>
       <c r="J4">
-        <v>565.6039114531156</v>
+        <v>594.2865445467057</v>
       </c>
       <c r="K4">
-        <v>803.5184060900917</v>
+        <v>803.5184060902233</v>
       </c>
       <c r="L4">
-        <v>1585.204202629707</v>
+        <v>1585.204202629708</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1461,10 +1420,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>3651.22139537928</v>
+        <v>3651.221395379282</v>
       </c>
       <c r="E5">
         <v>3259.605335069284</v>
@@ -1473,22 +1432,22 @@
         <v>2960.351158357882</v>
       </c>
       <c r="G5">
-        <v>3360.943198346854</v>
+        <v>3360.943198346853</v>
       </c>
       <c r="H5">
-        <v>2575.445962135388</v>
+        <v>2564.533711880403</v>
       </c>
       <c r="I5">
-        <v>2311.272627077008</v>
+        <v>2300.360376822028</v>
       </c>
       <c r="J5">
-        <v>2078.398176971622</v>
+        <v>2067.485926716646</v>
       </c>
       <c r="K5">
-        <v>3083.11817206606</v>
+        <v>3083.118172066057</v>
       </c>
       <c r="L5">
-        <v>3576.862365532715</v>
+        <v>3576.862365532712</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1499,34 +1458,34 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>66.91234564031244</v>
+        <v>66.91234564031245</v>
       </c>
       <c r="E6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="F6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="G6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="H6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="I6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="J6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
       <c r="K6">
-        <v>99.36590973615321</v>
+        <v>99.36590973615404</v>
       </c>
       <c r="L6">
-        <v>102.5820087418905</v>
+        <v>102.5820087418906</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1537,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>319.9388551259946</v>
@@ -1552,19 +1511,19 @@
         <v>362.4329451308008</v>
       </c>
       <c r="H7">
-        <v>381.8449619024158</v>
+        <v>381.8449619024157</v>
       </c>
       <c r="I7">
-        <v>398.9149312047223</v>
+        <v>398.9149312047224</v>
       </c>
       <c r="J7">
-        <v>416.2371346060163</v>
+        <v>416.2371346060162</v>
       </c>
       <c r="K7">
         <v>431.8338026884385</v>
       </c>
       <c r="L7">
-        <v>444.8604762525724</v>
+        <v>444.8604762525725</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1575,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>229.1565474368414</v>
+        <v>229.1565474368436</v>
       </c>
       <c r="E8">
         <v>284.0669110913908</v>
@@ -1587,7 +1546,7 @@
         <v>252.4097255083492</v>
       </c>
       <c r="G8">
-        <v>205.7653683019907</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H8">
         <v>284.0669110913908</v>
@@ -1613,7 +1572,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>10.29859460927422</v>
@@ -1634,13 +1593,13 @@
         <v>26.075</v>
       </c>
       <c r="J9">
-        <v>26.07499999999999</v>
+        <v>26.075</v>
       </c>
       <c r="K9">
-        <v>26.07499999999999</v>
+        <v>26.075</v>
       </c>
       <c r="L9">
-        <v>26.0750000000115</v>
+        <v>26.07499999999984</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1651,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1689,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1713,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>2.09285455204933</v>
+      </c>
+      <c r="L11">
         <v>2.092854552049329</v>
-      </c>
-      <c r="L11">
-        <v>2.09285455204933</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1724,10 +1683,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1745,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04533913674283642</v>
+        <v>0.04533913674283643</v>
       </c>
       <c r="J12">
         <v>0.3415713279706644</v>
       </c>
       <c r="K12">
-        <v>0.3415713279706643</v>
+        <v>2.171638186669592</v>
       </c>
       <c r="L12">
-        <v>0.3189017595992461</v>
+        <v>12.87589955948805</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1762,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1783,16 +1742,16 @@
         <v>0.008705114254624592</v>
       </c>
       <c r="I13">
+        <v>0.008705114254624583</v>
+      </c>
+      <c r="J13">
         <v>0.008705114254624594</v>
       </c>
-      <c r="J13">
-        <v>0.008705114254624575</v>
-      </c>
       <c r="K13">
-        <v>1.838771972953553</v>
+        <v>0.008705114254624594</v>
       </c>
       <c r="L13">
-        <v>12.5569977998888</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
